--- a/Results/VICINITY Core Ontology/Candidate CQs/P1_LLama_VICINITYCore.xlsx
+++ b/Results/VICINITY Core Ontology/Candidate CQs/P1_LLama_VICINITYCore.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psralha4\Desktop\F_Generative AI Results\Repository Files\Results\VICINITY Core Ontology\Candidate CQs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psralha4\Documents\RETROFIT-CQs\RETROFIT-CQs\Results\VICINITY Core Ontology\Candidate CQs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C5FFC8-389D-4F53-A399-DBA454E4A568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71ECCC49-A123-43E9-9966-71C65A21F630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,15 +694,23 @@
     <t>How do sensors work? Is there a specific technology or principle behind them?</t>
   </si>
   <si>
-    <t>Sentence2</t>
+    <t>Candidate CQs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -718,27 +726,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFABF8F"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -747,9 +740,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1054,13 +1045,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A229" sqref="A227:A229"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>224</v>
       </c>
@@ -2192,5 +2184,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>